--- a/ips-pilgrimage/ValueSet-Questionnaire-ConnectathonSubmission_Questionnaire-ConnectathonSubmission.xlsx
+++ b/ips-pilgrimage/ValueSet-Questionnaire-ConnectathonSubmission_Questionnaire-ConnectathonSubmission.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.2</t>
+    <t>2.0.3</t>
   </si>
   <si>
     <t>Name</t>
